--- a/matrices.xlsx
+++ b/matrices.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SamplesDetail" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConfusionMatrix" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scores" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
         <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +470,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -483,7 +484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,14 +611,136 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Concordance [Common positive]</t>
+          <t>Common Positive</t>
         </is>
       </c>
       <c r="B10" t="n">
+        <v>26</v>
+      </c>
+      <c r="C10" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Concordance [Common bacteria]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>18</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C11" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Common Negative</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>26</v>
+      </c>
+      <c r="C12" t="n">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>LOT1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5532</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Sensitivity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8667</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Specificity</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4062</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>PPV</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.4062</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>NPV</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8667</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>PLR</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.4596</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>NLR</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3282</v>
       </c>
     </row>
   </sheetData>

--- a/matrices.xlsx
+++ b/matrices.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,38 +438,155 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AIIMS Positive</t>
+          <t>RAMJA</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AIIMS Negative</t>
+          <t>AIIMS</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RAMJA Positive</t>
+          <t>Total Samples</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RAMJA Negative</t>
+          <t>Null Samples</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Non-Null</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>143</v>
+      </c>
+      <c r="C4" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Contaminated Samples</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Others [Not defined]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Useful Samples</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>143</v>
+      </c>
+      <c r="C7" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>97</v>
+      </c>
+      <c r="C8" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>46</v>
+      </c>
+      <c r="C9" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Common Positive</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>26</v>
+      </c>
+      <c r="C10" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Concordance [Common bacteria]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Common Negative</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>26</v>
+      </c>
+      <c r="C12" t="n">
         <v>26</v>
       </c>
     </row>
@@ -484,7 +601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,155 +612,38 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>RAMJA</t>
+          <t>AIIMS Positive</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AIIMS</t>
+          <t>AIIMS Negative</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Total Samples</t>
+          <t>RAMJA Positive</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>146</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Null Samples</t>
+          <t>RAMJA Negative</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Non-Null</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>143</v>
-      </c>
-      <c r="C4" t="n">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Contaminated Samples</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Others [Not defined]</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Useful Samples</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>143</v>
-      </c>
-      <c r="C7" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>97</v>
-      </c>
-      <c r="C8" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>46</v>
-      </c>
-      <c r="C9" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Common Positive</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>26</v>
-      </c>
-      <c r="C10" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Concordance [Common bacteria]</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>18</v>
-      </c>
-      <c r="C11" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Common Negative</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>26</v>
-      </c>
-      <c r="C12" t="n">
         <v>26</v>
       </c>
     </row>

--- a/matrices.xlsx
+++ b/matrices.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SamplesDetail" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConfusionMatrix" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,75 +455,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C2" t="n">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Null Samples</t>
+          <t>Blank Results</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Non-Null</t>
+          <t>Non-Blank Results</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C4" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Contaminated Samples</t>
+          <t>Contaminated Samples [-Ve]</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Others [Not defined]</t>
+          <t>Others [+Ve]</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Useful Samples</t>
+          <t>Common samples</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="C7" t="n">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8">
@@ -532,10 +533,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -545,10 +546,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C9" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -558,10 +559,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C10" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
@@ -571,10 +572,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
@@ -584,10 +585,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C12" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -628,10 +629,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -641,10 +642,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -680,7 +681,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5532</v>
+        <v>0.7321</v>
       </c>
     </row>
     <row r="3">
@@ -690,7 +691,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8667</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="4">
@@ -700,7 +701,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4062</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="5">
@@ -710,7 +711,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4062</v>
+        <v>0.5780999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -720,7 +721,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8667</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="7">
@@ -730,7 +731,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.4596</v>
+        <v>2.4667</v>
       </c>
     </row>
     <row r="8">
@@ -740,7 +741,113 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3282</v>
+        <v>0.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>P-Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Correlation with RAMJA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RAMJA</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Correlated</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Abdominal pain</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6261</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Not correlated</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>BurningMicturition</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1768</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Not correlated</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Urinating often</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0345</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Correlated</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Vaginal irritation</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Not correlated</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/matrices.xlsx
+++ b/matrices.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,6 +589,19 @@
       </c>
       <c r="C12" t="n">
         <v>45</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RAMJA Positive and AIIMS Negative</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>27</v>
+      </c>
+      <c r="C13" t="n">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/matrices.xlsx
+++ b/matrices.xlsx
@@ -7,10 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SamplesDetail" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConfusionMatrix" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ControlSamples" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ControlRAMJA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ControlAIIMS" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>131</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -481,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>114</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +496,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -520,10 +519,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>112</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -533,10 +532,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -546,10 +545,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -559,49 +558,23 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Concordance [Common bacteria]</t>
+          <t>Common Negative</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Common Negative</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>45</v>
-      </c>
-      <c r="C12" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>RAMJA Positive and AIIMS Negative</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>27</v>
-      </c>
-      <c r="C13" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -615,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,39 +599,76 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AIIMS Positive</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AIIMS Negative</t>
+          <t>Scores</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RAMJA Positive</t>
+          <t>Accuracy</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37</v>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RAMJA Negative</t>
+          <t>Sensitivity</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>45</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Specificity</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>PPV</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>NPV</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>PLR</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>NLR</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -683,7 +693,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>LOT1</t>
+          <t>Scores</t>
         </is>
       </c>
     </row>
@@ -694,7 +704,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7321</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="3">
@@ -704,7 +714,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -714,7 +724,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.625</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="5">
@@ -724,7 +734,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5780999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -734,7 +744,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -744,7 +754,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.4667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -754,113 +764,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>P-Value</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Correlation with RAMJA</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>RAMJA</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Correlated</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Abdominal pain</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.6261</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Not correlated</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>BurningMicturition</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.1768</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Not correlated</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Urinating often</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.0345</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Correlated</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Vaginal irritation</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.469</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Not correlated</t>
-        </is>
+        <v>1.166666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/matrices.xlsx
+++ b/matrices.xlsx
@@ -7,9 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ControlSamples" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ControlRAMJA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ControlAIIMS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SamplesDetail" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConfusionMatrix" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,10 +455,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +481,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
@@ -496,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -509,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -519,10 +520,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8">
@@ -532,10 +533,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -545,10 +546,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C9" t="n">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -558,23 +559,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
+          <t>Concordance [Common bacteria]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>25</v>
+      </c>
+      <c r="C11" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
           <t>Common Negative</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>11</v>
-      </c>
-      <c r="C11" t="n">
-        <v>11</v>
+      <c r="B12" t="n">
+        <v>45</v>
+      </c>
+      <c r="C12" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RAMJA Positive and AIIMS Negative</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>27</v>
+      </c>
+      <c r="C13" t="n">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -588,7 +615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,76 +626,39 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Scores</t>
+          <t>AIIMS Positive</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AIIMS Negative</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Accuracy</t>
+          <t>RAMJA Positive</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Sensitivity</t>
+          <t>RAMJA Negative</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Specificity</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>PPV</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>NPV</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>PLR</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>NLR</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,7 +694,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7321428571428571</v>
       </c>
     </row>
     <row r="3">
@@ -714,7 +704,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="4">
@@ -724,47 +714,183 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>PPV</t>
+          <t>Precision</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.578125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>NPV</t>
+          <t>Recall</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>PLR</t>
+          <t>F1 Score</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.7115384615384616</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
+          <t>PPV</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.578125</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>NPV</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>PLR</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.466666666666667</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
           <t>NLR</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>1.166666666666667</v>
+      <c r="B11" t="n">
+        <v>0.1199999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>P-Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Correlation with RAMJA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RAMJA</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Correlated</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Abdominal pain</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6261</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Not correlated</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>BurningMicturition</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1768</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Not correlated</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Urinating often</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0345</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Correlated</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Vaginal irritation</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Not correlated</t>
+        </is>
       </c>
     </row>
   </sheetData>
